--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Adam12-Sdc4.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Adam12-Sdc4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,7 +82,13 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
   </si>
   <si>
     <t>sCs</t>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>Sdc4</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.847765708294179</v>
+        <v>3.654681666666667</v>
       </c>
       <c r="H2">
-        <v>0.847765708294179</v>
+        <v>10.964045</v>
       </c>
       <c r="I2">
-        <v>0.009984807133130618</v>
+        <v>0.0410343331141888</v>
       </c>
       <c r="J2">
-        <v>0.009984807133130618</v>
+        <v>0.04103433311418879</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>36.8780198810074</v>
+        <v>0.1556706666666667</v>
       </c>
       <c r="N2">
-        <v>36.8780198810074</v>
+        <v>0.467012</v>
       </c>
       <c r="O2">
-        <v>0.3710279085721709</v>
+        <v>0.00151537522169743</v>
       </c>
       <c r="P2">
-        <v>0.3710279085721709</v>
+        <v>0.00151537522169743</v>
       </c>
       <c r="Q2">
-        <v>31.26392064490905</v>
+        <v>0.5689267315044445</v>
       </c>
       <c r="R2">
-        <v>31.26392064490905</v>
+        <v>5.120340583540001</v>
       </c>
       <c r="S2">
-        <v>0.003704642108101946</v>
+        <v>6.218241164012004E-05</v>
       </c>
       <c r="T2">
-        <v>0.003704642108101946</v>
+        <v>6.218241164012004E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.847765708294179</v>
+        <v>3.654681666666667</v>
       </c>
       <c r="H3">
-        <v>0.847765708294179</v>
+        <v>10.964045</v>
       </c>
       <c r="I3">
-        <v>0.009984807133130618</v>
+        <v>0.0410343331141888</v>
       </c>
       <c r="J3">
-        <v>0.009984807133130618</v>
+        <v>0.04103433311418879</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>16.8618500951123</v>
+        <v>37.12743</v>
       </c>
       <c r="N3">
-        <v>16.8618500951123</v>
+        <v>111.38229</v>
       </c>
       <c r="O3">
-        <v>0.1696462281769364</v>
+        <v>0.3614167567469731</v>
       </c>
       <c r="P3">
-        <v>0.1696462281769364</v>
+        <v>0.3614167567469732</v>
       </c>
       <c r="Q3">
-        <v>14.29489828903315</v>
+        <v>135.68893775145</v>
       </c>
       <c r="R3">
-        <v>14.29489828903315</v>
+        <v>1221.20043976305</v>
       </c>
       <c r="S3">
-        <v>0.001693884869209779</v>
+        <v>0.01483049558940504</v>
       </c>
       <c r="T3">
-        <v>0.001693884869209779</v>
+        <v>0.01483049558940504</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.847765708294179</v>
+        <v>3.654681666666667</v>
       </c>
       <c r="H4">
-        <v>0.847765708294179</v>
+        <v>10.964045</v>
       </c>
       <c r="I4">
-        <v>0.009984807133130618</v>
+        <v>0.0410343331141888</v>
       </c>
       <c r="J4">
-        <v>0.009984807133130618</v>
+        <v>0.04103433311418879</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.149612862403</v>
+        <v>17.74257933333334</v>
       </c>
       <c r="N4">
-        <v>17.149612862403</v>
+        <v>53.227738</v>
       </c>
       <c r="O4">
-        <v>0.1725413949472053</v>
+        <v>0.1727150378838289</v>
       </c>
       <c r="P4">
-        <v>0.1725413949472053</v>
+        <v>0.1727150378838289</v>
       </c>
       <c r="Q4">
-        <v>14.53885369526604</v>
+        <v>64.84347940891223</v>
       </c>
       <c r="R4">
-        <v>14.53885369526604</v>
+        <v>583.5913146802101</v>
       </c>
       <c r="S4">
-        <v>0.001722792551029163</v>
+        <v>0.007087246398354775</v>
       </c>
       <c r="T4">
-        <v>0.001722792551029163</v>
+        <v>0.007087246398354773</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.847765708294179</v>
+        <v>3.654681666666667</v>
       </c>
       <c r="H5">
-        <v>0.847765708294179</v>
+        <v>10.964045</v>
       </c>
       <c r="I5">
-        <v>0.009984807133130618</v>
+        <v>0.0410343331141888</v>
       </c>
       <c r="J5">
-        <v>0.009984807133130618</v>
+        <v>0.04103433311418879</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.82967471352271</v>
+        <v>18.87700766666667</v>
       </c>
       <c r="N5">
-        <v>4.82967471352271</v>
+        <v>56.631023</v>
       </c>
       <c r="O5">
-        <v>0.04859111508221464</v>
+        <v>0.1837581240601467</v>
       </c>
       <c r="P5">
-        <v>0.04859111508221464</v>
+        <v>0.1837581240601467</v>
       </c>
       <c r="Q5">
-        <v>4.094432604340066</v>
+        <v>68.98945384089278</v>
       </c>
       <c r="R5">
-        <v>4.094432604340066</v>
+        <v>620.905084568035</v>
       </c>
       <c r="S5">
-        <v>0.0004851729124796674</v>
+        <v>0.007540392075122492</v>
       </c>
       <c r="T5">
-        <v>0.0004851729124796674</v>
+        <v>0.007540392075122491</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,123 +776,123 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.847765708294179</v>
+        <v>3.654681666666667</v>
       </c>
       <c r="H6">
-        <v>0.847765708294179</v>
+        <v>10.964045</v>
       </c>
       <c r="I6">
-        <v>0.009984807133130618</v>
+        <v>0.0410343331141888</v>
       </c>
       <c r="J6">
-        <v>0.009984807133130618</v>
+        <v>0.04103433311418879</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.6750363319816</v>
+        <v>4.878365</v>
       </c>
       <c r="N6">
-        <v>23.6750363319816</v>
+        <v>14.635095</v>
       </c>
       <c r="O6">
-        <v>0.2381933532214729</v>
+        <v>0.04748841642225027</v>
       </c>
       <c r="P6">
-        <v>0.2381933532214729</v>
+        <v>0.04748841642225028</v>
       </c>
       <c r="Q6">
-        <v>20.0708839448728</v>
+        <v>17.82887112880833</v>
       </c>
       <c r="R6">
-        <v>20.0708839448728</v>
+        <v>160.459840159275</v>
       </c>
       <c r="S6">
-        <v>0.002378314692310063</v>
+        <v>0.001948655498535932</v>
       </c>
       <c r="T6">
-        <v>0.002378314692310063</v>
+        <v>0.001948655498535931</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>76.5901909650247</v>
+        <v>3.654681666666667</v>
       </c>
       <c r="H7">
-        <v>76.5901909650247</v>
+        <v>10.964045</v>
       </c>
       <c r="I7">
-        <v>0.9020632441174972</v>
+        <v>0.0410343331141888</v>
       </c>
       <c r="J7">
-        <v>0.9020632441174972</v>
+        <v>0.04103433311418879</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>36.8780198810074</v>
+        <v>23.94642</v>
       </c>
       <c r="N7">
-        <v>36.8780198810074</v>
+        <v>71.83926</v>
       </c>
       <c r="O7">
-        <v>0.3710279085721709</v>
+        <v>0.2331062896651035</v>
       </c>
       <c r="P7">
-        <v>0.3710279085721709</v>
+        <v>0.2331062896651035</v>
       </c>
       <c r="Q7">
-        <v>2824.494585098334</v>
+        <v>87.51654215630001</v>
       </c>
       <c r="R7">
-        <v>2824.494585098334</v>
+        <v>787.6488794067</v>
       </c>
       <c r="S7">
-        <v>0.3346906388647426</v>
+        <v>0.00956536114113044</v>
       </c>
       <c r="T7">
-        <v>0.3346906388647426</v>
+        <v>0.009565361141130439</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>76.5901909650247</v>
+        <v>76.62716166666667</v>
       </c>
       <c r="H8">
-        <v>76.5901909650247</v>
+        <v>229.881485</v>
       </c>
       <c r="I8">
-        <v>0.9020632441174972</v>
+        <v>0.8603607001133609</v>
       </c>
       <c r="J8">
-        <v>0.9020632441174972</v>
+        <v>0.8603607001133609</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>16.8618500951123</v>
+        <v>0.1556706666666667</v>
       </c>
       <c r="N8">
-        <v>16.8618500951123</v>
+        <v>0.467012</v>
       </c>
       <c r="O8">
-        <v>0.1696462281769364</v>
+        <v>0.00151537522169743</v>
       </c>
       <c r="P8">
-        <v>0.1696462281769364</v>
+        <v>0.00151537522169743</v>
       </c>
       <c r="Q8">
-        <v>1291.452318808271</v>
+        <v>11.92860134142444</v>
       </c>
       <c r="R8">
-        <v>1291.452318808271</v>
+        <v>107.35741207282</v>
       </c>
       <c r="S8">
-        <v>0.1530316269415844</v>
+        <v>0.00130376928667404</v>
       </c>
       <c r="T8">
-        <v>0.1530316269415844</v>
+        <v>0.00130376928667404</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>76.5901909650247</v>
+        <v>76.62716166666667</v>
       </c>
       <c r="H9">
-        <v>76.5901909650247</v>
+        <v>229.881485</v>
       </c>
       <c r="I9">
-        <v>0.9020632441174972</v>
+        <v>0.8603607001133609</v>
       </c>
       <c r="J9">
-        <v>0.9020632441174972</v>
+        <v>0.8603607001133609</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>17.149612862403</v>
+        <v>37.12743</v>
       </c>
       <c r="N9">
-        <v>17.149612862403</v>
+        <v>111.38229</v>
       </c>
       <c r="O9">
-        <v>0.1725413949472053</v>
+        <v>0.3614167567469731</v>
       </c>
       <c r="P9">
-        <v>0.1725413949472053</v>
+        <v>0.3614167567469732</v>
       </c>
       <c r="Q9">
-        <v>1313.49212410769</v>
+        <v>2844.96958087785</v>
       </c>
       <c r="R9">
-        <v>1313.49212410769</v>
+        <v>25604.72622790065</v>
       </c>
       <c r="S9">
-        <v>0.1556432504706343</v>
+        <v>0.310948773867526</v>
       </c>
       <c r="T9">
-        <v>0.1556432504706343</v>
+        <v>0.3109487738675261</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>76.5901909650247</v>
+        <v>76.62716166666667</v>
       </c>
       <c r="H10">
-        <v>76.5901909650247</v>
+        <v>229.881485</v>
       </c>
       <c r="I10">
-        <v>0.9020632441174972</v>
+        <v>0.8603607001133609</v>
       </c>
       <c r="J10">
-        <v>0.9020632441174972</v>
+        <v>0.8603607001133609</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.82967471352271</v>
+        <v>17.74257933333334</v>
       </c>
       <c r="N10">
-        <v>4.82967471352271</v>
+        <v>53.227738</v>
       </c>
       <c r="O10">
-        <v>0.04859111508221464</v>
+        <v>0.1727150378838289</v>
       </c>
       <c r="P10">
-        <v>0.04859111508221464</v>
+        <v>0.1727150378838289</v>
       </c>
       <c r="Q10">
-        <v>369.9057086076554</v>
+        <v>1359.563494958992</v>
       </c>
       <c r="R10">
-        <v>369.9057086076554</v>
+        <v>12236.07145463093</v>
       </c>
       <c r="S10">
-        <v>0.04383225890634918</v>
+        <v>0.1485972309138367</v>
       </c>
       <c r="T10">
-        <v>0.04383225890634918</v>
+        <v>0.1485972309138367</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,185 +1086,185 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>76.5901909650247</v>
+        <v>76.62716166666667</v>
       </c>
       <c r="H11">
-        <v>76.5901909650247</v>
+        <v>229.881485</v>
       </c>
       <c r="I11">
-        <v>0.9020632441174972</v>
+        <v>0.8603607001133609</v>
       </c>
       <c r="J11">
-        <v>0.9020632441174972</v>
+        <v>0.8603607001133609</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>23.6750363319816</v>
+        <v>18.87700766666667</v>
       </c>
       <c r="N11">
-        <v>23.6750363319816</v>
+        <v>56.631023</v>
       </c>
       <c r="O11">
-        <v>0.2381933532214729</v>
+        <v>0.1837581240601467</v>
       </c>
       <c r="P11">
-        <v>0.2381933532214729</v>
+        <v>0.1837581240601467</v>
       </c>
       <c r="Q11">
-        <v>1813.275553770369</v>
+        <v>1446.491518256573</v>
       </c>
       <c r="R11">
-        <v>1813.275553770369</v>
+        <v>13018.42366430916</v>
       </c>
       <c r="S11">
-        <v>0.2148654689341867</v>
+        <v>0.1580982682679057</v>
       </c>
       <c r="T11">
-        <v>0.2148654689341867</v>
+        <v>0.1580982682679057</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.0438723779551504</v>
+        <v>76.62716166666667</v>
       </c>
       <c r="H12">
-        <v>0.0438723779551504</v>
+        <v>229.881485</v>
       </c>
       <c r="I12">
-        <v>0.0005167196880791741</v>
+        <v>0.8603607001133609</v>
       </c>
       <c r="J12">
-        <v>0.0005167196880791741</v>
+        <v>0.8603607001133609</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>36.8780198810074</v>
+        <v>4.878365</v>
       </c>
       <c r="N12">
-        <v>36.8780198810074</v>
+        <v>14.635095</v>
       </c>
       <c r="O12">
-        <v>0.3710279085721709</v>
+        <v>0.04748841642225027</v>
       </c>
       <c r="P12">
-        <v>0.3710279085721709</v>
+        <v>0.04748841642225028</v>
       </c>
       <c r="Q12">
-        <v>1.617926426457107</v>
+        <v>373.8152635240083</v>
       </c>
       <c r="R12">
-        <v>1.617926426457107</v>
+        <v>3364.337371716075</v>
       </c>
       <c r="S12">
-        <v>0.0001917174251860805</v>
+        <v>0.04085716720032207</v>
       </c>
       <c r="T12">
-        <v>0.0001917174251860805</v>
+        <v>0.04085716720032208</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>26</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.0438723779551504</v>
+        <v>76.62716166666667</v>
       </c>
       <c r="H13">
-        <v>0.0438723779551504</v>
+        <v>229.881485</v>
       </c>
       <c r="I13">
-        <v>0.0005167196880791741</v>
+        <v>0.8603607001133609</v>
       </c>
       <c r="J13">
-        <v>0.0005167196880791741</v>
+        <v>0.8603607001133609</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>16.8618500951123</v>
+        <v>23.94642</v>
       </c>
       <c r="N13">
-        <v>16.8618500951123</v>
+        <v>71.83926</v>
       </c>
       <c r="O13">
-        <v>0.1696462281769364</v>
+        <v>0.2331062896651035</v>
       </c>
       <c r="P13">
-        <v>0.1696462281769364</v>
+        <v>0.2331062896651035</v>
       </c>
       <c r="Q13">
-        <v>0.7397694603958556</v>
+        <v>1834.9461966779</v>
       </c>
       <c r="R13">
-        <v>0.7397694603958556</v>
+        <v>16514.5157701011</v>
       </c>
       <c r="S13">
-        <v>8.765954610739495E-05</v>
+        <v>0.2005554905770963</v>
       </c>
       <c r="T13">
-        <v>8.765954610739495E-05</v>
+        <v>0.2005554905770963</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.0438723779551504</v>
+        <v>0.009750666666666666</v>
       </c>
       <c r="H14">
-        <v>0.0438723779551504</v>
+        <v>0.029252</v>
       </c>
       <c r="I14">
-        <v>0.0005167196880791741</v>
+        <v>0.0001094793310549392</v>
       </c>
       <c r="J14">
-        <v>0.0005167196880791741</v>
+        <v>0.0001094793310549392</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>17.149612862403</v>
+        <v>0.1556706666666667</v>
       </c>
       <c r="N14">
-        <v>17.149612862403</v>
+        <v>0.467012</v>
       </c>
       <c r="O14">
-        <v>0.1725413949472053</v>
+        <v>0.00151537522169743</v>
       </c>
       <c r="P14">
-        <v>0.1725413949472053</v>
+        <v>0.00151537522169743</v>
       </c>
       <c r="Q14">
-        <v>0.7523942972838531</v>
+        <v>0.001517892780444444</v>
       </c>
       <c r="R14">
-        <v>0.7523942972838531</v>
+        <v>0.013661035024</v>
       </c>
       <c r="S14">
-        <v>8.91555357778655E-05</v>
+        <v>1.659022655686648E-07</v>
       </c>
       <c r="T14">
-        <v>8.91555357778655E-05</v>
+        <v>1.659022655686648E-07</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.0438723779551504</v>
+        <v>0.009750666666666666</v>
       </c>
       <c r="H15">
-        <v>0.0438723779551504</v>
+        <v>0.029252</v>
       </c>
       <c r="I15">
-        <v>0.0005167196880791741</v>
+        <v>0.0001094793310549392</v>
       </c>
       <c r="J15">
-        <v>0.0005167196880791741</v>
+        <v>0.0001094793310549392</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.82967471352271</v>
+        <v>37.12743</v>
       </c>
       <c r="N15">
-        <v>4.82967471352271</v>
+        <v>111.38229</v>
       </c>
       <c r="O15">
-        <v>0.04859111508221464</v>
+        <v>0.3614167567469731</v>
       </c>
       <c r="P15">
-        <v>0.04859111508221464</v>
+        <v>0.3614167567469732</v>
       </c>
       <c r="Q15">
-        <v>0.2118893144321011</v>
+        <v>0.3620171941199999</v>
       </c>
       <c r="R15">
-        <v>0.2118893144321011</v>
+        <v>3.25815474708</v>
       </c>
       <c r="S15">
-        <v>2.51079858287012E-05</v>
+        <v>3.956766476070429E-05</v>
       </c>
       <c r="T15">
-        <v>2.51079858287012E-05</v>
+        <v>3.95676647607043E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,247 +1396,247 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.0438723779551504</v>
+        <v>0.009750666666666666</v>
       </c>
       <c r="H16">
-        <v>0.0438723779551504</v>
+        <v>0.029252</v>
       </c>
       <c r="I16">
-        <v>0.0005167196880791741</v>
+        <v>0.0001094793310549392</v>
       </c>
       <c r="J16">
-        <v>0.0005167196880791741</v>
+        <v>0.0001094793310549392</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>23.6750363319816</v>
+        <v>17.74257933333334</v>
       </c>
       <c r="N16">
-        <v>23.6750363319816</v>
+        <v>53.227738</v>
       </c>
       <c r="O16">
-        <v>0.2381933532214729</v>
+        <v>0.1727150378838289</v>
       </c>
       <c r="P16">
-        <v>0.2381933532214729</v>
+        <v>0.1727150378838289</v>
       </c>
       <c r="Q16">
-        <v>1.038680142058614</v>
+        <v>0.1730019768862222</v>
       </c>
       <c r="R16">
-        <v>1.038680142058614</v>
+        <v>1.557017791976</v>
       </c>
       <c r="S16">
-        <v>0.000123079195179132</v>
+        <v>1.890872681065007E-05</v>
       </c>
       <c r="T16">
-        <v>0.000123079195179132</v>
+        <v>1.890872681065007E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>7.42373767531852</v>
+        <v>0.009750666666666666</v>
       </c>
       <c r="H17">
-        <v>7.42373767531852</v>
+        <v>0.029252</v>
       </c>
       <c r="I17">
-        <v>0.08743522906129303</v>
+        <v>0.0001094793310549392</v>
       </c>
       <c r="J17">
-        <v>0.08743522906129303</v>
+        <v>0.0001094793310549392</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>36.8780198810074</v>
+        <v>18.87700766666667</v>
       </c>
       <c r="N17">
-        <v>36.8780198810074</v>
+        <v>56.631023</v>
       </c>
       <c r="O17">
-        <v>0.3710279085721709</v>
+        <v>0.1837581240601467</v>
       </c>
       <c r="P17">
-        <v>0.3710279085721709</v>
+        <v>0.1837581240601467</v>
       </c>
       <c r="Q17">
-        <v>273.77274558178</v>
+        <v>0.1840634094217778</v>
       </c>
       <c r="R17">
-        <v>273.77274558178</v>
+        <v>1.656570684796</v>
       </c>
       <c r="S17">
-        <v>0.03244091017414025</v>
+        <v>2.011771649801539E-05</v>
       </c>
       <c r="T17">
-        <v>0.03244091017414025</v>
+        <v>2.011771649801539E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>26</v>
-      </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>7.42373767531852</v>
+        <v>0.009750666666666666</v>
       </c>
       <c r="H18">
-        <v>7.42373767531852</v>
+        <v>0.029252</v>
       </c>
       <c r="I18">
-        <v>0.08743522906129303</v>
+        <v>0.0001094793310549392</v>
       </c>
       <c r="J18">
-        <v>0.08743522906129303</v>
+        <v>0.0001094793310549392</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>16.8618500951123</v>
+        <v>4.878365</v>
       </c>
       <c r="N18">
-        <v>16.8618500951123</v>
+        <v>14.635095</v>
       </c>
       <c r="O18">
-        <v>0.1696462281769364</v>
+        <v>0.04748841642225027</v>
       </c>
       <c r="P18">
-        <v>0.1696462281769364</v>
+        <v>0.04748841642225028</v>
       </c>
       <c r="Q18">
-        <v>125.1779518266583</v>
+        <v>0.04756731099333333</v>
       </c>
       <c r="R18">
-        <v>125.1779518266583</v>
+        <v>0.42810579894</v>
       </c>
       <c r="S18">
-        <v>0.01483305682003482</v>
+        <v>5.199000062766348E-06</v>
       </c>
       <c r="T18">
-        <v>0.01483305682003482</v>
+        <v>5.199000062766349E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>7.42373767531852</v>
+        <v>0.009750666666666666</v>
       </c>
       <c r="H19">
-        <v>7.42373767531852</v>
+        <v>0.029252</v>
       </c>
       <c r="I19">
-        <v>0.08743522906129303</v>
+        <v>0.0001094793310549392</v>
       </c>
       <c r="J19">
-        <v>0.08743522906129303</v>
+        <v>0.0001094793310549392</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>17.149612862403</v>
+        <v>23.94642</v>
       </c>
       <c r="N19">
-        <v>17.149612862403</v>
+        <v>71.83926</v>
       </c>
       <c r="O19">
-        <v>0.1725413949472053</v>
+        <v>0.2331062896651035</v>
       </c>
       <c r="P19">
-        <v>0.1725413949472053</v>
+        <v>0.2331062896651035</v>
       </c>
       <c r="Q19">
-        <v>127.3142271237482</v>
+        <v>0.23349355928</v>
       </c>
       <c r="R19">
-        <v>127.3142271237482</v>
+        <v>2.10144203352</v>
       </c>
       <c r="S19">
-        <v>0.01508619638976392</v>
+        <v>2.552032065723441E-05</v>
       </c>
       <c r="T19">
-        <v>0.01508619638976392</v>
+        <v>2.552032065723441E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>7.42373767531852</v>
+        <v>0.07944766666666667</v>
       </c>
       <c r="H20">
-        <v>7.42373767531852</v>
+        <v>0.238343</v>
       </c>
       <c r="I20">
-        <v>0.08743522906129303</v>
+        <v>0.0008920289963635775</v>
       </c>
       <c r="J20">
-        <v>0.08743522906129303</v>
+        <v>0.0008920289963635774</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>4.82967471352271</v>
+        <v>0.1556706666666667</v>
       </c>
       <c r="N20">
-        <v>4.82967471352271</v>
+        <v>0.467012</v>
       </c>
       <c r="O20">
-        <v>0.04859111508221464</v>
+        <v>0.00151537522169743</v>
       </c>
       <c r="P20">
-        <v>0.04859111508221464</v>
+        <v>0.00151537522169743</v>
       </c>
       <c r="Q20">
-        <v>35.85423813031172</v>
+        <v>0.01236767123511111</v>
       </c>
       <c r="R20">
-        <v>35.85423813031172</v>
+        <v>0.111309041116</v>
       </c>
       <c r="S20">
-        <v>0.004248575277557087</v>
+        <v>1.351758638124992E-06</v>
       </c>
       <c r="T20">
-        <v>0.004248575277557087</v>
+        <v>1.351758638124992E-06</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,1053 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.07944766666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.238343</v>
+      </c>
+      <c r="I21">
+        <v>0.0008920289963635775</v>
+      </c>
+      <c r="J21">
+        <v>0.0008920289963635774</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>37.12743</v>
+      </c>
+      <c r="N21">
+        <v>111.38229</v>
+      </c>
+      <c r="O21">
+        <v>0.3614167567469731</v>
+      </c>
+      <c r="P21">
+        <v>0.3614167567469732</v>
+      </c>
+      <c r="Q21">
+        <v>2.94968768283</v>
+      </c>
+      <c r="R21">
+        <v>26.54718914547</v>
+      </c>
+      <c r="S21">
+        <v>0.0003223942267899816</v>
+      </c>
+      <c r="T21">
+        <v>0.0003223942267899816</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.07944766666666667</v>
+      </c>
+      <c r="H22">
+        <v>0.238343</v>
+      </c>
+      <c r="I22">
+        <v>0.0008920289963635775</v>
+      </c>
+      <c r="J22">
+        <v>0.0008920289963635774</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>17.74257933333334</v>
+      </c>
+      <c r="N22">
+        <v>53.227738</v>
+      </c>
+      <c r="O22">
+        <v>0.1727150378838289</v>
+      </c>
+      <c r="P22">
+        <v>0.1727150378838289</v>
+      </c>
+      <c r="Q22">
+        <v>1.409606528681556</v>
+      </c>
+      <c r="R22">
+        <v>12.686458758134</v>
+      </c>
+      <c r="S22">
+        <v>0.0001540668219004092</v>
+      </c>
+      <c r="T22">
+        <v>0.0001540668219004092</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.07944766666666667</v>
+      </c>
+      <c r="H23">
+        <v>0.238343</v>
+      </c>
+      <c r="I23">
+        <v>0.0008920289963635775</v>
+      </c>
+      <c r="J23">
+        <v>0.0008920289963635774</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>18.87700766666667</v>
+      </c>
+      <c r="N23">
+        <v>56.631023</v>
+      </c>
+      <c r="O23">
+        <v>0.1837581240601467</v>
+      </c>
+      <c r="P23">
+        <v>0.1837581240601467</v>
+      </c>
+      <c r="Q23">
+        <v>1.499734212765444</v>
+      </c>
+      <c r="R23">
+        <v>13.497607914889</v>
+      </c>
+      <c r="S23">
+        <v>0.0001639175749790265</v>
+      </c>
+      <c r="T23">
+        <v>0.0001639175749790264</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.07944766666666667</v>
+      </c>
+      <c r="H24">
+        <v>0.238343</v>
+      </c>
+      <c r="I24">
+        <v>0.0008920289963635775</v>
+      </c>
+      <c r="J24">
+        <v>0.0008920289963635774</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>4.878365</v>
+      </c>
+      <c r="N24">
+        <v>14.635095</v>
+      </c>
+      <c r="O24">
+        <v>0.04748841642225027</v>
+      </c>
+      <c r="P24">
+        <v>0.04748841642225028</v>
+      </c>
+      <c r="Q24">
+        <v>0.3875747163983333</v>
+      </c>
+      <c r="R24">
+        <v>3.488172447585</v>
+      </c>
+      <c r="S24">
+        <v>4.236104444003554E-05</v>
+      </c>
+      <c r="T24">
+        <v>4.236104444003554E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.07944766666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.238343</v>
+      </c>
+      <c r="I25">
+        <v>0.0008920289963635775</v>
+      </c>
+      <c r="J25">
+        <v>0.0008920289963635774</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>23.94642</v>
+      </c>
+      <c r="N25">
+        <v>71.83926</v>
+      </c>
+      <c r="O25">
+        <v>0.2331062896651035</v>
+      </c>
+      <c r="P25">
+        <v>0.2331062896651035</v>
+      </c>
+      <c r="Q25">
+        <v>1.90248719402</v>
+      </c>
+      <c r="R25">
+        <v>17.12238474618</v>
+      </c>
+      <c r="S25">
+        <v>0.0002079375696159996</v>
+      </c>
+      <c r="T25">
+        <v>0.0002079375696159996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.06517299999999999</v>
+      </c>
+      <c r="H26">
+        <v>0.195519</v>
+      </c>
+      <c r="I26">
+        <v>0.0007317547288571944</v>
+      </c>
+      <c r="J26">
+        <v>0.0007317547288571944</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M26">
+        <v>0.1556706666666667</v>
+      </c>
+      <c r="N26">
+        <v>0.467012</v>
+      </c>
+      <c r="O26">
+        <v>0.00151537522169743</v>
+      </c>
+      <c r="P26">
+        <v>0.00151537522169743</v>
+      </c>
+      <c r="Q26">
+        <v>0.01014552435866667</v>
+      </c>
+      <c r="R26">
+        <v>0.09130971922800001</v>
+      </c>
+      <c r="S26">
+        <v>1.108882984470114E-06</v>
+      </c>
+      <c r="T26">
+        <v>1.108882984470114E-06</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G27">
+        <v>0.06517299999999999</v>
+      </c>
+      <c r="H27">
+        <v>0.195519</v>
+      </c>
+      <c r="I27">
+        <v>0.0007317547288571944</v>
+      </c>
+      <c r="J27">
+        <v>0.0007317547288571944</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>37.12743</v>
+      </c>
+      <c r="N27">
+        <v>111.38229</v>
+      </c>
+      <c r="O27">
+        <v>0.3614167567469731</v>
+      </c>
+      <c r="P27">
+        <v>0.3614167567469732</v>
+      </c>
+      <c r="Q27">
+        <v>2.41970599539</v>
+      </c>
+      <c r="R27">
+        <v>21.77735395851</v>
+      </c>
+      <c r="S27">
+        <v>0.0002644684208378279</v>
+      </c>
+      <c r="T27">
+        <v>0.0002644684208378279</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G28">
+        <v>0.06517299999999999</v>
+      </c>
+      <c r="H28">
+        <v>0.195519</v>
+      </c>
+      <c r="I28">
+        <v>0.0007317547288571944</v>
+      </c>
+      <c r="J28">
+        <v>0.0007317547288571944</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>17.74257933333334</v>
+      </c>
+      <c r="N28">
+        <v>53.227738</v>
+      </c>
+      <c r="O28">
+        <v>0.1727150378838289</v>
+      </c>
+      <c r="P28">
+        <v>0.1727150378838289</v>
+      </c>
+      <c r="Q28">
+        <v>1.156337122891333</v>
+      </c>
+      <c r="R28">
+        <v>10.407034106022</v>
+      </c>
+      <c r="S28">
+        <v>0.0001263850457162413</v>
+      </c>
+      <c r="T28">
+        <v>0.0001263850457162413</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>7.42373767531852</v>
-      </c>
-      <c r="H21">
-        <v>7.42373767531852</v>
-      </c>
-      <c r="I21">
-        <v>0.08743522906129303</v>
-      </c>
-      <c r="J21">
-        <v>0.08743522906129303</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>23.6750363319816</v>
-      </c>
-      <c r="N21">
-        <v>23.6750363319816</v>
-      </c>
-      <c r="O21">
-        <v>0.2381933532214729</v>
-      </c>
-      <c r="P21">
-        <v>0.2381933532214729</v>
-      </c>
-      <c r="Q21">
-        <v>175.7572591822666</v>
-      </c>
-      <c r="R21">
-        <v>175.7572591822666</v>
-      </c>
-      <c r="S21">
-        <v>0.02082649039979696</v>
-      </c>
-      <c r="T21">
-        <v>0.02082649039979696</v>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G29">
+        <v>0.06517299999999999</v>
+      </c>
+      <c r="H29">
+        <v>0.195519</v>
+      </c>
+      <c r="I29">
+        <v>0.0007317547288571944</v>
+      </c>
+      <c r="J29">
+        <v>0.0007317547288571944</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>18.87700766666667</v>
+      </c>
+      <c r="N29">
+        <v>56.631023</v>
+      </c>
+      <c r="O29">
+        <v>0.1837581240601467</v>
+      </c>
+      <c r="P29">
+        <v>0.1837581240601467</v>
+      </c>
+      <c r="Q29">
+        <v>1.230271220659667</v>
+      </c>
+      <c r="R29">
+        <v>11.072440985937</v>
+      </c>
+      <c r="S29">
+        <v>0.0001344658762469394</v>
+      </c>
+      <c r="T29">
+        <v>0.0001344658762469394</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G30">
+        <v>0.06517299999999999</v>
+      </c>
+      <c r="H30">
+        <v>0.195519</v>
+      </c>
+      <c r="I30">
+        <v>0.0007317547288571944</v>
+      </c>
+      <c r="J30">
+        <v>0.0007317547288571944</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>4.878365</v>
+      </c>
+      <c r="N30">
+        <v>14.635095</v>
+      </c>
+      <c r="O30">
+        <v>0.04748841642225027</v>
+      </c>
+      <c r="P30">
+        <v>0.04748841642225028</v>
+      </c>
+      <c r="Q30">
+        <v>0.317937682145</v>
+      </c>
+      <c r="R30">
+        <v>2.861439139305</v>
+      </c>
+      <c r="S30">
+        <v>3.474987328292129E-05</v>
+      </c>
+      <c r="T30">
+        <v>3.474987328292129E-05</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G31">
+        <v>0.06517299999999999</v>
+      </c>
+      <c r="H31">
+        <v>0.195519</v>
+      </c>
+      <c r="I31">
+        <v>0.0007317547288571944</v>
+      </c>
+      <c r="J31">
+        <v>0.0007317547288571944</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>23.94642</v>
+      </c>
+      <c r="N31">
+        <v>71.83926</v>
+      </c>
+      <c r="O31">
+        <v>0.2331062896651035</v>
+      </c>
+      <c r="P31">
+        <v>0.2331062896651035</v>
+      </c>
+      <c r="Q31">
+        <v>1.56066003066</v>
+      </c>
+      <c r="R31">
+        <v>14.04594027594</v>
+      </c>
+      <c r="S31">
+        <v>0.0001705766297887944</v>
+      </c>
+      <c r="T31">
+        <v>0.0001705766297887944</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>8.627781000000001</v>
+      </c>
+      <c r="H32">
+        <v>25.883343</v>
+      </c>
+      <c r="I32">
+        <v>0.09687170371617471</v>
+      </c>
+      <c r="J32">
+        <v>0.09687170371617469</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M32">
+        <v>0.1556706666666667</v>
+      </c>
+      <c r="N32">
+        <v>0.467012</v>
+      </c>
+      <c r="O32">
+        <v>0.00151537522169743</v>
+      </c>
+      <c r="P32">
+        <v>0.00151537522169743</v>
+      </c>
+      <c r="Q32">
+        <v>1.343092420124</v>
+      </c>
+      <c r="R32">
+        <v>12.087831781116</v>
+      </c>
+      <c r="S32">
+        <v>0.000146796979495106</v>
+      </c>
+      <c r="T32">
+        <v>0.000146796979495106</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>8.627781000000001</v>
+      </c>
+      <c r="H33">
+        <v>25.883343</v>
+      </c>
+      <c r="I33">
+        <v>0.09687170371617471</v>
+      </c>
+      <c r="J33">
+        <v>0.09687170371617469</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>37.12743</v>
+      </c>
+      <c r="N33">
+        <v>111.38229</v>
+      </c>
+      <c r="O33">
+        <v>0.3614167567469731</v>
+      </c>
+      <c r="P33">
+        <v>0.3614167567469732</v>
+      </c>
+      <c r="Q33">
+        <v>320.32733513283</v>
+      </c>
+      <c r="R33">
+        <v>2882.94601619547</v>
+      </c>
+      <c r="S33">
+        <v>0.03501105697765356</v>
+      </c>
+      <c r="T33">
+        <v>0.03501105697765356</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>8.627781000000001</v>
+      </c>
+      <c r="H34">
+        <v>25.883343</v>
+      </c>
+      <c r="I34">
+        <v>0.09687170371617471</v>
+      </c>
+      <c r="J34">
+        <v>0.09687170371617469</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>17.74257933333334</v>
+      </c>
+      <c r="N34">
+        <v>53.227738</v>
+      </c>
+      <c r="O34">
+        <v>0.1727150378838289</v>
+      </c>
+      <c r="P34">
+        <v>0.1727150378838289</v>
+      </c>
+      <c r="Q34">
+        <v>153.079088863126</v>
+      </c>
+      <c r="R34">
+        <v>1377.711799768134</v>
+      </c>
+      <c r="S34">
+        <v>0.01673119997721017</v>
+      </c>
+      <c r="T34">
+        <v>0.01673119997721017</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>8.627781000000001</v>
+      </c>
+      <c r="H35">
+        <v>25.883343</v>
+      </c>
+      <c r="I35">
+        <v>0.09687170371617471</v>
+      </c>
+      <c r="J35">
+        <v>0.09687170371617469</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>18.87700766666667</v>
+      </c>
+      <c r="N35">
+        <v>56.631023</v>
+      </c>
+      <c r="O35">
+        <v>0.1837581240601467</v>
+      </c>
+      <c r="P35">
+        <v>0.1837581240601467</v>
+      </c>
+      <c r="Q35">
+        <v>162.866688083321</v>
+      </c>
+      <c r="R35">
+        <v>1465.800192749889</v>
+      </c>
+      <c r="S35">
+        <v>0.01780096254939461</v>
+      </c>
+      <c r="T35">
+        <v>0.01780096254939461</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>8.627781000000001</v>
+      </c>
+      <c r="H36">
+        <v>25.883343</v>
+      </c>
+      <c r="I36">
+        <v>0.09687170371617471</v>
+      </c>
+      <c r="J36">
+        <v>0.09687170371617469</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>4.878365</v>
+      </c>
+      <c r="N36">
+        <v>14.635095</v>
+      </c>
+      <c r="O36">
+        <v>0.04748841642225027</v>
+      </c>
+      <c r="P36">
+        <v>0.04748841642225028</v>
+      </c>
+      <c r="Q36">
+        <v>42.089464858065</v>
+      </c>
+      <c r="R36">
+        <v>378.805183722585</v>
+      </c>
+      <c r="S36">
+        <v>0.004600283805606554</v>
+      </c>
+      <c r="T36">
+        <v>0.004600283805606554</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>8.627781000000001</v>
+      </c>
+      <c r="H37">
+        <v>25.883343</v>
+      </c>
+      <c r="I37">
+        <v>0.09687170371617471</v>
+      </c>
+      <c r="J37">
+        <v>0.09687170371617469</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>23.94642</v>
+      </c>
+      <c r="N37">
+        <v>71.83926</v>
+      </c>
+      <c r="O37">
+        <v>0.2331062896651035</v>
+      </c>
+      <c r="P37">
+        <v>0.2331062896651035</v>
+      </c>
+      <c r="Q37">
+        <v>206.60446749402</v>
+      </c>
+      <c r="R37">
+        <v>1859.44020744618</v>
+      </c>
+      <c r="S37">
+        <v>0.0225814034268147</v>
+      </c>
+      <c r="T37">
+        <v>0.0225814034268147</v>
       </c>
     </row>
   </sheetData>
